--- a/국방예산추이.xlsx
+++ b/국방예산추이.xlsx
@@ -90,7 +90,7 @@
     <t>○ 자료다운일자</t>
   </si>
   <si>
-    <t>2022.11.27 11:17</t>
+    <t>2022.11.28 13:14</t>
   </si>
   <si>
     <t>○ 통계표URL</t>
